--- a/resources/templates/export-origami.xlsx
+++ b/resources/templates/export-origami.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="78">
   <si>
     <t>Код_товара</t>
   </si>
@@ -202,12 +202,57 @@
   <si>
     <t>HTML_ключевые_слова_группы_укр</t>
   </si>
+  <si>
+    <t>Картины по номерам</t>
+  </si>
+  <si>
+    <t>Картина по номерам</t>
+  </si>
+  <si>
+    <t>Картины по номерам от компании "ArtNum". Товары для творчостества и вдохновения.</t>
+  </si>
+  <si>
+    <t>Картини за номерами від компанії ArtNum. Товари для творчості та натхнення.</t>
+  </si>
+  <si>
+    <t>Купить Картины по номерам в Киеве компании "ArtNum - товары для творчества": +380 (66) 478-49-73 Техническая поддержка</t>
+  </si>
+  <si>
+    <t>Купити Картини за номерами у Києві компанії "ArtNum - товари для творчості": +380 (66) 478-49-73 Технічна підтримка</t>
+  </si>
+  <si>
+    <t>Картины по номерам, уникальный сюжет, услуги, ArtNum, творчество</t>
+  </si>
+  <si>
+    <t>Картини за номерами, унікальний сюжет, послуги, ArtNum, творчість</t>
+  </si>
+  <si>
+    <t>Алмазная мозаика</t>
+  </si>
+  <si>
+    <t>Алмазна мозаїка</t>
+  </si>
+  <si>
+    <t>Алмазная мозаика от компании  "ArtNum". Товары для творчостества и вдохновения.</t>
+  </si>
+  <si>
+    <t>Алмазна мозаїка від компанії ArtNum. Товари для творчості та натхнення.</t>
+  </si>
+  <si>
+    <t>Купить Алмазную мозаику в Киеве компании "ArtNum - товары для творчества": +380 (66) 478-49-73 Техническая поддержка</t>
+  </si>
+  <si>
+    <t>Купити Алмазну мохаїку у Києві компанії "ArtNum - товари для творчості": +380 (66) 478-49-73 Технічна підтримка</t>
+  </si>
+  <si>
+    <t>Алмазна мозаїка, уникальный сюжет, послуги, ArtNum, творчість</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -222,6 +267,16 @@
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -238,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -251,6 +306,18 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -50797,45 +50864,119 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="12" width="8.71"/>
+    <col customWidth="1" min="1" max="1" width="25.0"/>
+    <col customWidth="1" min="2" max="2" width="26.71"/>
+    <col customWidth="1" min="3" max="3" width="20.57"/>
+    <col customWidth="1" min="4" max="4" width="15.57"/>
+    <col customWidth="1" min="5" max="6" width="8.71"/>
+    <col customWidth="1" min="7" max="7" width="96.14"/>
+    <col customWidth="1" min="8" max="8" width="8.71"/>
+    <col customWidth="1" min="9" max="9" width="29.71"/>
+    <col customWidth="1" min="10" max="10" width="8.71"/>
+    <col customWidth="1" min="11" max="11" width="63.29"/>
+    <col customWidth="1" min="12" max="12" width="62.57"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6">
+        <v>1.18820562E8</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6">
+        <v>1.18981497E8</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
